--- a/stress_strain_excel/stress_strain_lap=20_gap=1.xlsx
+++ b/stress_strain_excel/stress_strain_lap=20_gap=1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jay0423/Documents/大学関連/M2/ansys/stress_strain_excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA63B977-AFDD-1F4C-8FC3-1F7D0EDA648A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FA8E6E6-3B70-0540-920A-11986A029673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="16100" windowHeight="12560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="16100" windowHeight="13400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
     <t>詳細</t>
   </si>
   <si>
-    <t>継ぎ手間の距離を10mmに設定して解析を行った．</t>
+    <t>lap=20,gap=1</t>
   </si>
   <si>
     <t>最大応力</t>
@@ -143,111 +143,40 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en"/>
+              <a:t>lap=20_gap=1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>stress</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
+            <a:ln>
+              <a:prstDash val="solid"/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="ja-JP"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$C$2:$C$105</c:f>
@@ -552,16 +481,16 @@
                   <c:v>8.2500000000000004E-3</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>8.2875000000000015E-3</c:v>
+                  <c:v>8.2916666666666677E-3</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>8.3104166666666673E-3</c:v>
+                  <c:v>8.3125000000000022E-3</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>8.3187499999999998E-3</c:v>
+                  <c:v>8.3208333333333346E-3</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>8.3260833333333329E-3</c:v>
+                  <c:v>8.3270833333333322E-3</c:v>
                 </c:pt>
                 <c:pt idx="103">
                   <c:v>8.3333333333333332E-3</c:v>
@@ -576,324 +505,324 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="104"/>
                 <c:pt idx="0">
-                  <c:v>0.55964403292181064</c:v>
+                  <c:v>0.50043209876543215</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1192880658436211</c:v>
+                  <c:v>1.000866255144033</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.678930041152263</c:v>
+                  <c:v>1.5012983539094651</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.23858024691358</c:v>
+                  <c:v>2.0017325102880661</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.79820987654321</c:v>
+                  <c:v>2.50216049382716</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.3577983539094651</c:v>
+                  <c:v>3.0025925925925918</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.917345679012346</c:v>
+                  <c:v>3.503024691358025</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.4763374485596712</c:v>
+                  <c:v>4.0034567901234572</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.0352263374485604</c:v>
+                  <c:v>4.5038888888888886</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.5921810699588468</c:v>
+                  <c:v>5.0043209876543209</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.1477777777777769</c:v>
+                  <c:v>5.5047736625514396</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.7034979423868313</c:v>
+                  <c:v>6.0050205761316873</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.2563374485596714</c:v>
+                  <c:v>6.5050411522633738</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.8065637860082306</c:v>
+                  <c:v>7.0046090534979406</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8.349238683127572</c:v>
+                  <c:v>7.5031069958847736</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8.8821399176954738</c:v>
+                  <c:v>8.0003086419753089</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>9.3941975308641972</c:v>
+                  <c:v>8.482633744855967</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>9.9115637860082302</c:v>
+                  <c:v>8.9579629629629629</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>10.419197530864199</c:v>
+                  <c:v>9.4134979423868312</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>10.904115226337449</c:v>
+                  <c:v>9.8579218106995885</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>11.37069958847737</c:v>
+                  <c:v>10.29691358024691</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>11.7937037037037</c:v>
+                  <c:v>10.73364197530864</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>12.170843621399181</c:v>
+                  <c:v>11.160123456790121</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>12.54748971193416</c:v>
+                  <c:v>11.58074074074074</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>12.921604938271599</c:v>
+                  <c:v>11.99018518518518</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>13.24940329218107</c:v>
+                  <c:v>12.386790123456789</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>13.590617283950619</c:v>
+                  <c:v>12.768991769547331</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>13.880185185185191</c:v>
+                  <c:v>13.141090534979419</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>14.09952674897119</c:v>
+                  <c:v>13.497037037037041</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>13.97</c:v>
+                  <c:v>13.86065843621399</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>13.55930041152263</c:v>
+                  <c:v>14.219032921810699</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>13.069526748971191</c:v>
+                  <c:v>14.539938271604941</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>12.533888888888891</c:v>
+                  <c:v>14.760246913580239</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>12.11786008230453</c:v>
+                  <c:v>14.71979423868313</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>12.05930041152263</c:v>
+                  <c:v>14.42489711934156</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>12.07769547325103</c:v>
+                  <c:v>14.078065843621401</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>12.151728395061729</c:v>
+                  <c:v>13.701893004115229</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>12.28757201646091</c:v>
+                  <c:v>13.2372633744856</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>12.43650205761317</c:v>
+                  <c:v>12.73748971193416</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>12.56467078189301</c:v>
+                  <c:v>11.86656378600823</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>12.672119341563789</c:v>
+                  <c:v>10.461604938271609</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>12.82572016460905</c:v>
+                  <c:v>6.0451851851851854</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>12.99014403292181</c:v>
+                  <c:v>5.1310082304526743</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>13.142983539094651</c:v>
+                  <c:v>5.0616872427983539</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>13.28401234567901</c:v>
+                  <c:v>5.0834773662551438</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>13.34150205761317</c:v>
+                  <c:v>5.1338271604938273</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>13.40434156378601</c:v>
+                  <c:v>5.2183539094650202</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>13.492839506172841</c:v>
+                  <c:v>5.3204938271604938</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>13.6416049382716</c:v>
+                  <c:v>5.4239917695473254</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>13.806646090534979</c:v>
+                  <c:v>5.5320370370370373</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>13.97691358024691</c:v>
+                  <c:v>5.6380452674897121</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>14.15281893004115</c:v>
+                  <c:v>5.7427983539094649</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>14.316399176954731</c:v>
+                  <c:v>5.8494650205761314</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>14.496502057613171</c:v>
+                  <c:v>5.9550205761316866</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>14.66557613168724</c:v>
+                  <c:v>6.0615637860082296</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>14.78800411522634</c:v>
+                  <c:v>6.1667901234567903</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>14.91707818930041</c:v>
+                  <c:v>6.2691563786008224</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>15.078703703703701</c:v>
+                  <c:v>6.369053497942387</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>15.23736625514403</c:v>
+                  <c:v>6.461769547325102</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>15.358868312757201</c:v>
+                  <c:v>6.5563374485596704</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>15.4870987654321</c:v>
+                  <c:v>6.6522016460905364</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>15.6225720164609</c:v>
+                  <c:v>6.7430041152263369</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>15.77915637860082</c:v>
+                  <c:v>6.8092181069958846</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>15.957078189300409</c:v>
+                  <c:v>6.8952880658436211</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>16.118621399176959</c:v>
+                  <c:v>6.9980452674897116</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>16.288024691358022</c:v>
+                  <c:v>7.0994444444444449</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>16.43283950617284</c:v>
+                  <c:v>7.2011728395061718</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>16.595884773662551</c:v>
+                  <c:v>7.2967078189300407</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>16.774732510288061</c:v>
+                  <c:v>7.3633127572016468</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>16.920288065843621</c:v>
+                  <c:v>7.4588683127572013</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>16.998065843621401</c:v>
+                  <c:v>7.556995884773662</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>17.17722222222222</c:v>
+                  <c:v>7.658683127572016</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>17.353621399176959</c:v>
+                  <c:v>7.7607613168724274</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>17.516481481481481</c:v>
+                  <c:v>7.8623456790123454</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>17.655617283950619</c:v>
+                  <c:v>7.964485596707819</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>17.785658436213989</c:v>
+                  <c:v>8.0654732510288074</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>17.936707818930039</c:v>
+                  <c:v>8.164526748971193</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>18.100123456790129</c:v>
+                  <c:v>8.2656995884773661</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>18.282386831275719</c:v>
+                  <c:v>8.3662962962962961</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>18.467674897119341</c:v>
+                  <c:v>8.4673662551440323</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>18.65950617283951</c:v>
+                  <c:v>8.5676131687242805</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>18.86183127572016</c:v>
+                  <c:v>8.6656584362139917</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>19.063189300411519</c:v>
+                  <c:v>8.7631481481481472</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>19.26230452674897</c:v>
+                  <c:v>8.855185185185185</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>19.469423868312759</c:v>
+                  <c:v>8.949835390946502</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>19.667016460905351</c:v>
+                  <c:v>9.0370576131687237</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>19.869609053497939</c:v>
+                  <c:v>9.0893209876543199</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>20.08423868312757</c:v>
+                  <c:v>9.1652263374485603</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>20.301748971193419</c:v>
+                  <c:v>9.2189506172839497</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>20.51814814814815</c:v>
+                  <c:v>9.2502263374485594</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>20.733127572016461</c:v>
+                  <c:v>9.2275720164609041</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>20.949382716049382</c:v>
+                  <c:v>9.172551440329217</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>21.152057613168719</c:v>
+                  <c:v>9.1403497942386824</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>21.31152263374485</c:v>
+                  <c:v>9.1638065843621401</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>21.22921810699588</c:v>
+                  <c:v>9.2153909465020565</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>19.820555555555551</c:v>
+                  <c:v>9.2331687242798353</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>17.63808641975309</c:v>
+                  <c:v>9.2710699588477361</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>13.13506172839506</c:v>
+                  <c:v>9.3002263374485583</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>8.7295679012345673</c:v>
+                  <c:v>9.342880658436215</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>8.5847736625514415</c:v>
+                  <c:v>9.3771604938271604</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>8.1292386831275714</c:v>
+                  <c:v>9.3865020576131695</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>8.104609053497942</c:v>
+                  <c:v>9.3779835390946502</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>7.9898353909465012</c:v>
+                  <c:v>9.3187860082304521</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>7.9076131687242794</c:v>
+                  <c:v>9.2638271604938272</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1175-2846-A656-7D8CF7FB765C}"/>
+              <c16:uniqueId val="{00000000-E552-4445-B0D0-6205BAF7BFE8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -905,268 +834,86 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2053324400"/>
-        <c:axId val="2122769984"/>
+        <c:axId val="10"/>
+        <c:axId val="20"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2053324400"/>
+        <c:axId val="10"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines/>
         <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en"/>
+                  <a:t>Strain [-]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
           <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ja-JP"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2122769984"/>
+        <c:crossAx val="20"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2122769984"/>
+        <c:axId val="20"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="5000"/>
-                  <a:lumOff val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:minorGridlines>
+        <c:majorGridlines/>
         <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en"/>
+                  <a:t>Stress [MPa]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
           <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ja-JP"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2053324400"/>
+        <c:crossAx val="10"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
       <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ja-JP"/>
-    </a:p>
-  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -1175,583 +922,314 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en"/>
+              <a:t>lap=20_gap=1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>8.3333333333333344E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6666666666666669E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5000000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.3333333333333338E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.1666666666666669E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0000000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.8333333333333338E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.6666666666666675E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.5000000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.3333333333333339E-4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.1666666666666676E-4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.0833333333333339E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.166666666666667E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.25E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.3333333333333339E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.416666666666667E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.5E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.5833333333333339E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0.50043209876543215</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.000866255144033</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5012983539094651</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0017325102880661</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.50216049382716</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.0025925925925918</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.503024691358025</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.0034567901234572</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.5038888888888886</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.0043209876543209</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.5047736625514396</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.0050205761316873</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.5050411522633738</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.0046090534979406</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.5031069958847736</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.0003086419753089</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.482633744855967</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.9579629629629629</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.4134979423868312</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-74AC-AC47-93FB-72C1C7EA4ECF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="10"/>
+        <c:axId val="20"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="10"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en"/>
+                  <a:t>Strain [-]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="20"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="20"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:minorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en"/>
+                  <a:t>Stress [MPa]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="10"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>431800</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:to>
+    <xdr:ext cx="5400000" cy="2700000"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="グラフ 1">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9C69DAE-767D-2C49-B261-207E37938C6D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1768,7 +1246,40 @@
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5400000" cy="2700000"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A559B05-AC15-8D47-A1D8-57E546222F2B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2059,8 +1570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -2090,19 +1601,19 @@
         <v>0.01</v>
       </c>
       <c r="B2">
-        <v>27.198699999999999</v>
+        <v>24.321000000000002</v>
       </c>
       <c r="C2">
         <v>8.3333333333333344E-5</v>
       </c>
       <c r="D2">
-        <v>0.55964403292181064</v>
+        <v>0.50043209876543215</v>
       </c>
       <c r="F2" t="s">
         <v>6</v>
       </c>
       <c r="G2">
-        <v>21.31152263374485</v>
+        <v>14.760246913580239</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2110,13 +1621,13 @@
         <v>0.02</v>
       </c>
       <c r="B3">
-        <v>54.397399999999998</v>
+        <v>48.642099999999999</v>
       </c>
       <c r="C3">
         <v>1.6666666666666669E-4</v>
       </c>
       <c r="D3">
-        <v>1.1192880658436211</v>
+        <v>1.000866255144033</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2124,13 +1635,13 @@
         <v>0.03</v>
       </c>
       <c r="B4">
-        <v>81.596000000000004</v>
+        <v>72.963099999999997</v>
       </c>
       <c r="C4">
         <v>2.5000000000000001E-4</v>
       </c>
       <c r="D4">
-        <v>1.678930041152263</v>
+        <v>1.5012983539094651</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2138,13 +1649,13 @@
         <v>0.04</v>
       </c>
       <c r="B5">
-        <v>108.795</v>
+        <v>97.284199999999998</v>
       </c>
       <c r="C5">
         <v>3.3333333333333338E-4</v>
       </c>
       <c r="D5">
-        <v>2.23858024691358</v>
+        <v>2.0017325102880661</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2152,13 +1663,13 @@
         <v>0.05</v>
       </c>
       <c r="B6">
-        <v>135.99299999999999</v>
+        <v>121.605</v>
       </c>
       <c r="C6">
         <v>4.1666666666666669E-4</v>
       </c>
       <c r="D6">
-        <v>2.79820987654321</v>
+        <v>2.50216049382716</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2166,13 +1677,13 @@
         <v>0.06</v>
       </c>
       <c r="B7">
-        <v>163.18899999999999</v>
+        <v>145.92599999999999</v>
       </c>
       <c r="C7">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="D7">
-        <v>3.3577983539094651</v>
+        <v>3.0025925925925918</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2180,13 +1691,13 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="B8">
-        <v>190.38300000000001</v>
+        <v>170.24700000000001</v>
       </c>
       <c r="C8">
         <v>5.8333333333333338E-4</v>
       </c>
       <c r="D8">
-        <v>3.917345679012346</v>
+        <v>3.503024691358025</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -2194,13 +1705,13 @@
         <v>0.08</v>
       </c>
       <c r="B9">
-        <v>217.55</v>
+        <v>194.56800000000001</v>
       </c>
       <c r="C9">
         <v>6.6666666666666675E-4</v>
       </c>
       <c r="D9">
-        <v>4.4763374485596712</v>
+        <v>4.0034567901234572</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -2208,13 +1719,13 @@
         <v>0.09</v>
       </c>
       <c r="B10">
-        <v>244.71199999999999</v>
+        <v>218.88900000000001</v>
       </c>
       <c r="C10">
         <v>7.5000000000000002E-4</v>
       </c>
       <c r="D10">
-        <v>5.0352263374485604</v>
+        <v>4.5038888888888886</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -2222,13 +1733,13 @@
         <v>0.1</v>
       </c>
       <c r="B11">
-        <v>271.77999999999997</v>
+        <v>243.21</v>
       </c>
       <c r="C11">
         <v>8.3333333333333339E-4</v>
       </c>
       <c r="D11">
-        <v>5.5921810699588468</v>
+        <v>5.0043209876543209</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -2236,13 +1747,13 @@
         <v>0.11</v>
       </c>
       <c r="B12">
-        <v>298.78199999999998</v>
+        <v>267.53199999999998</v>
       </c>
       <c r="C12">
         <v>9.1666666666666676E-4</v>
       </c>
       <c r="D12">
-        <v>6.1477777777777769</v>
+        <v>5.5047736625514396</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -2250,13 +1761,13 @@
         <v>0.12</v>
       </c>
       <c r="B13">
-        <v>325.79000000000002</v>
+        <v>291.84399999999999</v>
       </c>
       <c r="C13">
         <v>1E-3</v>
       </c>
       <c r="D13">
-        <v>6.7034979423868313</v>
+        <v>6.0050205761316873</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -2264,13 +1775,13 @@
         <v>0.13</v>
       </c>
       <c r="B14">
-        <v>352.65800000000002</v>
+        <v>316.14499999999998</v>
       </c>
       <c r="C14">
         <v>1.0833333333333339E-3</v>
       </c>
       <c r="D14">
-        <v>7.2563374485596714</v>
+        <v>6.5050411522633738</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -2278,13 +1789,13 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="B15">
-        <v>379.399</v>
+        <v>340.42399999999998</v>
       </c>
       <c r="C15">
         <v>1.166666666666667E-3</v>
       </c>
       <c r="D15">
-        <v>7.8065637860082306</v>
+        <v>7.0046090534979406</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2292,13 +1803,13 @@
         <v>0.15</v>
       </c>
       <c r="B16">
-        <v>405.77300000000002</v>
+        <v>364.65100000000001</v>
       </c>
       <c r="C16">
         <v>1.25E-3</v>
       </c>
       <c r="D16">
-        <v>8.349238683127572</v>
+        <v>7.5031069958847736</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2306,13 +1817,13 @@
         <v>0.16</v>
       </c>
       <c r="B17">
-        <v>431.67200000000003</v>
+        <v>388.815</v>
       </c>
       <c r="C17">
         <v>1.3333333333333339E-3</v>
       </c>
       <c r="D17">
-        <v>8.8821399176954738</v>
+        <v>8.0003086419753089</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2320,13 +1831,13 @@
         <v>0.17</v>
       </c>
       <c r="B18">
-        <v>456.55799999999999</v>
+        <v>412.25599999999997</v>
       </c>
       <c r="C18">
         <v>1.416666666666667E-3</v>
       </c>
       <c r="D18">
-        <v>9.3941975308641972</v>
+        <v>8.482633744855967</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2334,13 +1845,13 @@
         <v>0.18</v>
       </c>
       <c r="B19">
-        <v>481.702</v>
+        <v>435.35700000000003</v>
       </c>
       <c r="C19">
         <v>1.5E-3</v>
       </c>
       <c r="D19">
-        <v>9.9115637860082302</v>
+        <v>8.9579629629629629</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2348,13 +1859,13 @@
         <v>0.19</v>
       </c>
       <c r="B20">
-        <v>506.37299999999999</v>
+        <v>457.49599999999998</v>
       </c>
       <c r="C20">
         <v>1.5833333333333339E-3</v>
       </c>
       <c r="D20">
-        <v>10.419197530864199</v>
+        <v>9.4134979423868312</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2362,13 +1873,13 @@
         <v>0.2</v>
       </c>
       <c r="B21">
-        <v>529.94000000000005</v>
+        <v>479.09500000000003</v>
       </c>
       <c r="C21">
         <v>1.666666666666667E-3</v>
       </c>
       <c r="D21">
-        <v>10.904115226337449</v>
+        <v>9.8579218106995885</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2376,13 +1887,13 @@
         <v>0.21</v>
       </c>
       <c r="B22">
-        <v>552.61599999999999</v>
+        <v>500.43</v>
       </c>
       <c r="C22">
         <v>1.75E-3</v>
       </c>
       <c r="D22">
-        <v>11.37069958847737</v>
+        <v>10.29691358024691</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2390,13 +1901,13 @@
         <v>0.22</v>
       </c>
       <c r="B23">
-        <v>573.17399999999998</v>
+        <v>521.65499999999997</v>
       </c>
       <c r="C23">
         <v>1.8333333333333339E-3</v>
       </c>
       <c r="D23">
-        <v>11.7937037037037</v>
+        <v>10.73364197530864</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2404,13 +1915,13 @@
         <v>0.23</v>
       </c>
       <c r="B24">
-        <v>591.50300000000004</v>
+        <v>542.38199999999995</v>
       </c>
       <c r="C24">
         <v>1.916666666666667E-3</v>
       </c>
       <c r="D24">
-        <v>12.170843621399181</v>
+        <v>11.160123456790121</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2418,13 +1929,13 @@
         <v>0.24</v>
       </c>
       <c r="B25">
-        <v>609.80799999999999</v>
+        <v>562.82399999999996</v>
       </c>
       <c r="C25">
         <v>2E-3</v>
       </c>
       <c r="D25">
-        <v>12.54748971193416</v>
+        <v>11.58074074074074</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2432,13 +1943,13 @@
         <v>0.25</v>
       </c>
       <c r="B26">
-        <v>627.99</v>
+        <v>582.72299999999996</v>
       </c>
       <c r="C26">
         <v>2.0833333333333329E-3</v>
       </c>
       <c r="D26">
-        <v>12.921604938271599</v>
+        <v>11.99018518518518</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2446,13 +1957,13 @@
         <v>0.26</v>
       </c>
       <c r="B27">
-        <v>643.92100000000005</v>
+        <v>601.99800000000005</v>
       </c>
       <c r="C27">
         <v>2.166666666666667E-3</v>
       </c>
       <c r="D27">
-        <v>13.24940329218107</v>
+        <v>12.386790123456789</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2460,13 +1971,13 @@
         <v>0.27</v>
       </c>
       <c r="B28">
-        <v>660.50400000000002</v>
+        <v>620.57299999999998</v>
       </c>
       <c r="C28">
         <v>2.2499999999999998E-3</v>
       </c>
       <c r="D28">
-        <v>13.590617283950619</v>
+        <v>12.768991769547331</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2474,13 +1985,13 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="B29">
-        <v>674.577</v>
+        <v>638.65700000000004</v>
       </c>
       <c r="C29">
         <v>2.333333333333334E-3</v>
       </c>
       <c r="D29">
-        <v>13.880185185185191</v>
+        <v>13.141090534979419</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2488,13 +1999,13 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="B30">
-        <v>685.23699999999997</v>
+        <v>655.95600000000002</v>
       </c>
       <c r="C30">
         <v>2.4166666666666668E-3</v>
       </c>
       <c r="D30">
-        <v>14.09952674897119</v>
+        <v>13.497037037037041</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2502,13 +2013,13 @@
         <v>0.3</v>
       </c>
       <c r="B31">
-        <v>678.94200000000001</v>
+        <v>673.62800000000004</v>
       </c>
       <c r="C31">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="D31">
-        <v>13.97</v>
+        <v>13.86065843621399</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2516,13 +2027,13 @@
         <v>0.31</v>
       </c>
       <c r="B32">
-        <v>658.98199999999997</v>
+        <v>691.04499999999996</v>
       </c>
       <c r="C32">
         <v>2.5833333333333329E-3</v>
       </c>
       <c r="D32">
-        <v>13.55930041152263</v>
+        <v>14.219032921810699</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2530,13 +2041,13 @@
         <v>0.32</v>
       </c>
       <c r="B33">
-        <v>635.17899999999997</v>
+        <v>706.64099999999996</v>
       </c>
       <c r="C33">
         <v>2.666666666666667E-3</v>
       </c>
       <c r="D33">
-        <v>13.069526748971191</v>
+        <v>14.539938271604941</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2544,13 +2055,13 @@
         <v>0.33</v>
       </c>
       <c r="B34">
-        <v>609.14700000000005</v>
+        <v>717.34799999999996</v>
       </c>
       <c r="C34">
         <v>2.7499999999999998E-3</v>
       </c>
       <c r="D34">
-        <v>12.533888888888891</v>
+        <v>14.760246913580239</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2558,13 +2069,13 @@
         <v>0.34</v>
       </c>
       <c r="B35">
-        <v>588.928</v>
+        <v>715.38199999999995</v>
       </c>
       <c r="C35">
         <v>2.833333333333334E-3</v>
       </c>
       <c r="D35">
-        <v>12.11786008230453</v>
+        <v>14.71979423868313</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2572,13 +2083,13 @@
         <v>0.35</v>
       </c>
       <c r="B36">
-        <v>586.08199999999999</v>
+        <v>701.05</v>
       </c>
       <c r="C36">
         <v>2.9166666666666668E-3</v>
       </c>
       <c r="D36">
-        <v>12.05930041152263</v>
+        <v>14.42489711934156</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2586,13 +2097,13 @@
         <v>0.36</v>
       </c>
       <c r="B37">
-        <v>586.976</v>
+        <v>684.19399999999996</v>
       </c>
       <c r="C37">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="D37">
-        <v>12.07769547325103</v>
+        <v>14.078065843621401</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2600,13 +2111,13 @@
         <v>0.37</v>
       </c>
       <c r="B38">
-        <v>590.57399999999996</v>
+        <v>665.91200000000003</v>
       </c>
       <c r="C38">
         <v>3.0833333333333329E-3</v>
       </c>
       <c r="D38">
-        <v>12.151728395061729</v>
+        <v>13.701893004115229</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2614,13 +2125,13 @@
         <v>0.38</v>
       </c>
       <c r="B39">
-        <v>597.17600000000004</v>
+        <v>643.33100000000002</v>
       </c>
       <c r="C39">
         <v>3.166666666666667E-3</v>
       </c>
       <c r="D39">
-        <v>12.28757201646091</v>
+        <v>13.2372633744856</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -2628,13 +2139,13 @@
         <v>0.39</v>
       </c>
       <c r="B40">
-        <v>604.41399999999999</v>
+        <v>619.04200000000003</v>
       </c>
       <c r="C40">
         <v>3.2500000000000012E-3</v>
       </c>
       <c r="D40">
-        <v>12.43650205761317</v>
+        <v>12.73748971193416</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2642,13 +2153,13 @@
         <v>0.4</v>
       </c>
       <c r="B41">
-        <v>610.64300000000003</v>
+        <v>576.71500000000003</v>
       </c>
       <c r="C41">
         <v>3.333333333333334E-3</v>
       </c>
       <c r="D41">
-        <v>12.56467078189301</v>
+        <v>11.86656378600823</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2656,13 +2167,13 @@
         <v>0.41</v>
       </c>
       <c r="B42">
-        <v>615.86500000000001</v>
+        <v>508.43400000000003</v>
       </c>
       <c r="C42">
         <v>3.4166666666666668E-3</v>
       </c>
       <c r="D42">
-        <v>12.672119341563789</v>
+        <v>10.461604938271609</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -2670,13 +2181,13 @@
         <v>0.42</v>
       </c>
       <c r="B43">
-        <v>623.33000000000004</v>
+        <v>293.79599999999999</v>
       </c>
       <c r="C43">
         <v>3.5000000000000001E-3</v>
       </c>
       <c r="D43">
-        <v>12.82572016460905</v>
+        <v>6.0451851851851854</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -2684,13 +2195,13 @@
         <v>0.43</v>
       </c>
       <c r="B44">
-        <v>631.32100000000003</v>
+        <v>249.36699999999999</v>
       </c>
       <c r="C44">
         <v>3.5833333333333329E-3</v>
       </c>
       <c r="D44">
-        <v>12.99014403292181</v>
+        <v>5.1310082304526743</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2698,13 +2209,13 @@
         <v>0.44</v>
       </c>
       <c r="B45">
-        <v>638.74900000000002</v>
+        <v>245.99799999999999</v>
       </c>
       <c r="C45">
         <v>3.666666666666667E-3</v>
       </c>
       <c r="D45">
-        <v>13.142983539094651</v>
+        <v>5.0616872427983539</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2712,13 +2223,13 @@
         <v>0.45</v>
       </c>
       <c r="B46">
-        <v>645.60299999999995</v>
+        <v>247.05699999999999</v>
       </c>
       <c r="C46">
         <v>3.7499999999999999E-3</v>
       </c>
       <c r="D46">
-        <v>13.28401234567901</v>
+        <v>5.0834773662551438</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2726,13 +2237,13 @@
         <v>0.46</v>
       </c>
       <c r="B47">
-        <v>648.39700000000005</v>
+        <v>249.50399999999999</v>
       </c>
       <c r="C47">
         <v>3.833333333333334E-3</v>
       </c>
       <c r="D47">
-        <v>13.34150205761317</v>
+        <v>5.1338271604938273</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -2740,13 +2251,13 @@
         <v>0.47</v>
       </c>
       <c r="B48">
-        <v>651.45100000000002</v>
+        <v>253.61199999999999</v>
       </c>
       <c r="C48">
         <v>3.9166666666666664E-3</v>
       </c>
       <c r="D48">
-        <v>13.40434156378601</v>
+        <v>5.2183539094650202</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2754,13 +2265,13 @@
         <v>0.48</v>
       </c>
       <c r="B49">
-        <v>655.75199999999995</v>
+        <v>258.57600000000002</v>
       </c>
       <c r="C49">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="D49">
-        <v>13.492839506172841</v>
+        <v>5.3204938271604938</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -2768,13 +2279,13 @@
         <v>0.49</v>
       </c>
       <c r="B50">
-        <v>662.98199999999997</v>
+        <v>263.60599999999999</v>
       </c>
       <c r="C50">
         <v>4.0833333333333338E-3</v>
       </c>
       <c r="D50">
-        <v>13.6416049382716</v>
+        <v>5.4239917695473254</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2782,13 +2293,13 @@
         <v>0.5</v>
       </c>
       <c r="B51">
-        <v>671.00300000000004</v>
+        <v>268.85700000000003</v>
       </c>
       <c r="C51">
         <v>4.1666666666666666E-3</v>
       </c>
       <c r="D51">
-        <v>13.806646090534979</v>
+        <v>5.5320370370370373</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -2796,13 +2307,13 @@
         <v>0.51</v>
       </c>
       <c r="B52">
-        <v>679.27800000000002</v>
+        <v>274.00900000000001</v>
       </c>
       <c r="C52">
         <v>4.2500000000000003E-3</v>
       </c>
       <c r="D52">
-        <v>13.97691358024691</v>
+        <v>5.6380452674897121</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -2810,13 +2321,13 @@
         <v>0.52</v>
       </c>
       <c r="B53">
-        <v>687.827</v>
+        <v>279.10000000000002</v>
       </c>
       <c r="C53">
         <v>4.333333333333334E-3</v>
       </c>
       <c r="D53">
-        <v>14.15281893004115</v>
+        <v>5.7427983539094649</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2824,13 +2335,13 @@
         <v>0.53</v>
       </c>
       <c r="B54">
-        <v>695.77700000000004</v>
+        <v>284.28399999999999</v>
       </c>
       <c r="C54">
         <v>4.4166666666666677E-3</v>
       </c>
       <c r="D54">
-        <v>14.316399176954731</v>
+        <v>5.8494650205761314</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2838,13 +2349,13 @@
         <v>0.54</v>
       </c>
       <c r="B55">
-        <v>704.53</v>
+        <v>289.41399999999999</v>
       </c>
       <c r="C55">
         <v>4.5000000000000014E-3</v>
       </c>
       <c r="D55">
-        <v>14.496502057613171</v>
+        <v>5.9550205761316866</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2852,13 +2363,13 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="B56">
-        <v>712.74699999999996</v>
+        <v>294.59199999999998</v>
       </c>
       <c r="C56">
         <v>4.5833333333333334E-3</v>
       </c>
       <c r="D56">
-        <v>14.66557613168724</v>
+        <v>6.0615637860082296</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2866,13 +2377,13 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="B57">
-        <v>718.697</v>
+        <v>299.70600000000002</v>
       </c>
       <c r="C57">
         <v>4.6666666666666671E-3</v>
       </c>
       <c r="D57">
-        <v>14.78800411522634</v>
+        <v>6.1667901234567903</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2880,13 +2391,13 @@
         <v>0.56999999999999995</v>
       </c>
       <c r="B58">
-        <v>724.97</v>
+        <v>304.68099999999998</v>
       </c>
       <c r="C58">
         <v>4.7499999999999999E-3</v>
       </c>
       <c r="D58">
-        <v>14.91707818930041</v>
+        <v>6.2691563786008224</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2894,13 +2405,13 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="B59">
-        <v>732.82500000000005</v>
+        <v>309.536</v>
       </c>
       <c r="C59">
         <v>4.8333333333333336E-3</v>
       </c>
       <c r="D59">
-        <v>15.078703703703701</v>
+        <v>6.369053497942387</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2908,13 +2419,13 @@
         <v>0.59</v>
       </c>
       <c r="B60">
-        <v>740.53599999999994</v>
+        <v>314.04199999999997</v>
       </c>
       <c r="C60">
         <v>4.9166666666666673E-3</v>
       </c>
       <c r="D60">
-        <v>15.23736625514403</v>
+        <v>6.461769547325102</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2922,13 +2433,13 @@
         <v>0.6</v>
       </c>
       <c r="B61">
-        <v>746.44100000000003</v>
+        <v>318.63799999999998</v>
       </c>
       <c r="C61">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="D61">
-        <v>15.358868312757201</v>
+        <v>6.5563374485596704</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2936,13 +2447,13 @@
         <v>0.61</v>
       </c>
       <c r="B62">
-        <v>752.673</v>
+        <v>323.29700000000003</v>
       </c>
       <c r="C62">
         <v>5.0833333333333329E-3</v>
       </c>
       <c r="D62">
-        <v>15.4870987654321</v>
+        <v>6.6522016460905364</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2950,13 +2461,13 @@
         <v>0.62</v>
       </c>
       <c r="B63">
-        <v>759.25699999999995</v>
+        <v>327.71</v>
       </c>
       <c r="C63">
         <v>5.1666666666666666E-3</v>
       </c>
       <c r="D63">
-        <v>15.6225720164609</v>
+        <v>6.7430041152263369</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2964,13 +2475,13 @@
         <v>0.63</v>
       </c>
       <c r="B64">
-        <v>766.86699999999996</v>
+        <v>330.928</v>
       </c>
       <c r="C64">
         <v>5.2500000000000003E-3</v>
       </c>
       <c r="D64">
-        <v>15.77915637860082</v>
+        <v>6.8092181069958846</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2978,13 +2489,13 @@
         <v>0.64</v>
       </c>
       <c r="B65">
-        <v>775.51400000000001</v>
+        <v>335.11099999999999</v>
       </c>
       <c r="C65">
         <v>5.333333333333334E-3</v>
       </c>
       <c r="D65">
-        <v>15.957078189300409</v>
+        <v>6.8952880658436211</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2992,13 +2503,13 @@
         <v>0.65</v>
       </c>
       <c r="B66">
-        <v>783.36500000000001</v>
+        <v>340.10500000000002</v>
       </c>
       <c r="C66">
         <v>5.4166666666666677E-3</v>
       </c>
       <c r="D66">
-        <v>16.118621399176959</v>
+        <v>6.9980452674897116</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -3006,13 +2517,13 @@
         <v>0.66</v>
       </c>
       <c r="B67">
-        <v>791.59799999999996</v>
+        <v>345.03300000000002</v>
       </c>
       <c r="C67">
         <v>5.5000000000000014E-3</v>
       </c>
       <c r="D67">
-        <v>16.288024691358022</v>
+        <v>7.0994444444444449</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -3020,13 +2531,13 @@
         <v>0.67</v>
       </c>
       <c r="B68">
-        <v>798.63599999999997</v>
+        <v>349.97699999999998</v>
       </c>
       <c r="C68">
         <v>5.5833333333333334E-3</v>
       </c>
       <c r="D68">
-        <v>16.43283950617284</v>
+        <v>7.2011728395061718</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -3034,13 +2545,13 @@
         <v>0.68</v>
       </c>
       <c r="B69">
-        <v>806.56</v>
+        <v>354.62</v>
       </c>
       <c r="C69">
         <v>5.6666666666666671E-3</v>
       </c>
       <c r="D69">
-        <v>16.595884773662551</v>
+        <v>7.2967078189300407</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -3048,13 +2559,13 @@
         <v>0.69</v>
       </c>
       <c r="B70">
-        <v>815.25199999999995</v>
+        <v>357.85700000000003</v>
       </c>
       <c r="C70">
         <v>5.7499999999999999E-3</v>
       </c>
       <c r="D70">
-        <v>16.774732510288061</v>
+        <v>7.3633127572016468</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -3062,13 +2573,13 @@
         <v>0.7</v>
       </c>
       <c r="B71">
-        <v>822.32600000000002</v>
+        <v>362.50099999999998</v>
       </c>
       <c r="C71">
         <v>5.8333333333333336E-3</v>
       </c>
       <c r="D71">
-        <v>16.920288065843621</v>
+        <v>7.4588683127572013</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -3076,13 +2587,13 @@
         <v>0.71</v>
       </c>
       <c r="B72">
-        <v>826.10599999999999</v>
+        <v>367.27</v>
       </c>
       <c r="C72">
         <v>5.9166666666666673E-3</v>
       </c>
       <c r="D72">
-        <v>16.998065843621401</v>
+        <v>7.556995884773662</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -3090,13 +2601,13 @@
         <v>0.72</v>
       </c>
       <c r="B73">
-        <v>834.81299999999999</v>
+        <v>372.21199999999999</v>
       </c>
       <c r="C73">
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="D73">
-        <v>17.17722222222222</v>
+        <v>7.658683127572016</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -3104,13 +2615,13 @@
         <v>0.73</v>
       </c>
       <c r="B74">
-        <v>843.38599999999997</v>
+        <v>377.173</v>
       </c>
       <c r="C74">
         <v>6.083333333333333E-3</v>
       </c>
       <c r="D74">
-        <v>17.353621399176959</v>
+        <v>7.7607613168724274</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -3118,13 +2629,13 @@
         <v>0.74</v>
       </c>
       <c r="B75">
-        <v>851.30100000000004</v>
+        <v>382.11</v>
       </c>
       <c r="C75">
         <v>6.1666666666666667E-3</v>
       </c>
       <c r="D75">
-        <v>17.516481481481481</v>
+        <v>7.8623456790123454</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -3132,13 +2643,13 @@
         <v>0.75</v>
       </c>
       <c r="B76">
-        <v>858.06299999999999</v>
+        <v>387.07400000000001</v>
       </c>
       <c r="C76">
         <v>6.2500000000000003E-3</v>
       </c>
       <c r="D76">
-        <v>17.655617283950619</v>
+        <v>7.964485596707819</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -3146,13 +2657,13 @@
         <v>0.76</v>
       </c>
       <c r="B77">
-        <v>864.38300000000004</v>
+        <v>391.98200000000003</v>
       </c>
       <c r="C77">
         <v>6.333333333333334E-3</v>
       </c>
       <c r="D77">
-        <v>17.785658436213989</v>
+        <v>8.0654732510288074</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -3160,13 +2671,13 @@
         <v>0.77</v>
       </c>
       <c r="B78">
-        <v>871.72400000000005</v>
+        <v>396.79599999999999</v>
       </c>
       <c r="C78">
         <v>6.4166666666666677E-3</v>
       </c>
       <c r="D78">
-        <v>17.936707818930039</v>
+        <v>8.164526748971193</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -3174,13 +2685,13 @@
         <v>0.78</v>
       </c>
       <c r="B79">
-        <v>879.66600000000005</v>
+        <v>401.71300000000002</v>
       </c>
       <c r="C79">
         <v>6.5000000000000006E-3</v>
       </c>
       <c r="D79">
-        <v>18.100123456790129</v>
+        <v>8.2656995884773661</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -3188,13 +2699,13 @@
         <v>0.79</v>
       </c>
       <c r="B80">
-        <v>888.524</v>
+        <v>406.60199999999998</v>
       </c>
       <c r="C80">
         <v>6.5833333333333334E-3</v>
       </c>
       <c r="D80">
-        <v>18.282386831275719</v>
+        <v>8.3662962962962961</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -3202,13 +2713,13 @@
         <v>0.8</v>
       </c>
       <c r="B81">
-        <v>897.529</v>
+        <v>411.51400000000001</v>
       </c>
       <c r="C81">
         <v>6.6666666666666671E-3</v>
       </c>
       <c r="D81">
-        <v>18.467674897119341</v>
+        <v>8.4673662551440323</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -3216,13 +2727,13 @@
         <v>0.81</v>
       </c>
       <c r="B82">
-        <v>906.85199999999998</v>
+        <v>416.38600000000002</v>
       </c>
       <c r="C82">
         <v>6.7500000000000008E-3</v>
       </c>
       <c r="D82">
-        <v>18.65950617283951</v>
+        <v>8.5676131687242805</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -3230,13 +2741,13 @@
         <v>0.82</v>
       </c>
       <c r="B83">
-        <v>916.68499999999995</v>
+        <v>421.15100000000001</v>
       </c>
       <c r="C83">
         <v>6.8333333333333336E-3</v>
       </c>
       <c r="D83">
-        <v>18.86183127572016</v>
+        <v>8.6656584362139917</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -3244,13 +2755,13 @@
         <v>0.83</v>
       </c>
       <c r="B84">
-        <v>926.471</v>
+        <v>425.88900000000001</v>
       </c>
       <c r="C84">
         <v>6.9166666666666673E-3</v>
       </c>
       <c r="D84">
-        <v>19.063189300411519</v>
+        <v>8.7631481481481472</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -3258,13 +2769,13 @@
         <v>0.84</v>
       </c>
       <c r="B85">
-        <v>936.14800000000002</v>
+        <v>430.36200000000002</v>
       </c>
       <c r="C85">
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="D85">
-        <v>19.26230452674897</v>
+        <v>8.855185185185185</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -3272,13 +2783,13 @@
         <v>0.85</v>
       </c>
       <c r="B86">
-        <v>946.21400000000006</v>
+        <v>434.96199999999999</v>
       </c>
       <c r="C86">
         <v>7.083333333333333E-3</v>
       </c>
       <c r="D86">
-        <v>19.469423868312759</v>
+        <v>8.949835390946502</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -3286,13 +2797,13 @@
         <v>0.86</v>
       </c>
       <c r="B87">
-        <v>955.81700000000001</v>
+        <v>439.20100000000002</v>
       </c>
       <c r="C87">
         <v>7.1666666666666667E-3</v>
       </c>
       <c r="D87">
-        <v>19.667016460905351</v>
+        <v>9.0370576131687237</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -3300,13 +2811,13 @@
         <v>0.87</v>
       </c>
       <c r="B88">
-        <v>965.66300000000001</v>
+        <v>441.74099999999999</v>
       </c>
       <c r="C88">
         <v>7.2500000000000004E-3</v>
       </c>
       <c r="D88">
-        <v>19.869609053497939</v>
+        <v>9.0893209876543199</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -3314,13 +2825,13 @@
         <v>0.88</v>
       </c>
       <c r="B89">
-        <v>976.09400000000005</v>
+        <v>445.43</v>
       </c>
       <c r="C89">
         <v>7.3333333333333341E-3</v>
       </c>
       <c r="D89">
-        <v>20.08423868312757</v>
+        <v>9.1652263374485603</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -3328,13 +2839,13 @@
         <v>0.89</v>
       </c>
       <c r="B90">
-        <v>986.66499999999996</v>
+        <v>448.041</v>
       </c>
       <c r="C90">
         <v>7.4166666666666678E-3</v>
       </c>
       <c r="D90">
-        <v>20.301748971193419</v>
+        <v>9.2189506172839497</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -3342,13 +2853,13 @@
         <v>0.9</v>
       </c>
       <c r="B91">
-        <v>997.18200000000002</v>
+        <v>449.56099999999998</v>
       </c>
       <c r="C91">
         <v>7.5000000000000006E-3</v>
       </c>
       <c r="D91">
-        <v>20.51814814814815</v>
+        <v>9.2502263374485594</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -3356,13 +2867,13 @@
         <v>0.91</v>
       </c>
       <c r="B92">
-        <v>1007.63</v>
+        <v>448.46</v>
       </c>
       <c r="C92">
         <v>7.5833333333333334E-3</v>
       </c>
       <c r="D92">
-        <v>20.733127572016461</v>
+        <v>9.2275720164609041</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -3370,13 +2881,13 @@
         <v>0.92</v>
       </c>
       <c r="B93">
-        <v>1018.14</v>
+        <v>445.786</v>
       </c>
       <c r="C93">
         <v>7.6666666666666671E-3</v>
       </c>
       <c r="D93">
-        <v>20.949382716049382</v>
+        <v>9.172551440329217</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -3384,13 +2895,13 @@
         <v>0.93</v>
       </c>
       <c r="B94">
-        <v>1027.99</v>
+        <v>444.221</v>
       </c>
       <c r="C94">
         <v>7.7500000000000008E-3</v>
       </c>
       <c r="D94">
-        <v>21.152057613168719</v>
+        <v>9.1403497942386824</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -3398,13 +2909,13 @@
         <v>0.94</v>
       </c>
       <c r="B95">
-        <v>1035.74</v>
+        <v>445.36099999999999</v>
       </c>
       <c r="C95">
         <v>7.8333333333333328E-3</v>
       </c>
       <c r="D95">
-        <v>21.31152263374485</v>
+        <v>9.1638065843621401</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -3412,13 +2923,13 @@
         <v>0.95</v>
       </c>
       <c r="B96">
-        <v>1031.74</v>
+        <v>447.86799999999999</v>
       </c>
       <c r="C96">
         <v>7.9166666666666673E-3</v>
       </c>
       <c r="D96">
-        <v>21.22921810699588</v>
+        <v>9.2153909465020565</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -3426,13 +2937,13 @@
         <v>0.96</v>
       </c>
       <c r="B97">
-        <v>963.279</v>
+        <v>448.73200000000003</v>
       </c>
       <c r="C97">
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="D97">
-        <v>19.820555555555551</v>
+        <v>9.2331687242798353</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -3440,13 +2951,13 @@
         <v>0.97</v>
       </c>
       <c r="B98">
-        <v>857.21100000000001</v>
+        <v>450.57400000000001</v>
       </c>
       <c r="C98">
         <v>8.083333333333333E-3</v>
       </c>
       <c r="D98">
-        <v>17.63808641975309</v>
+        <v>9.2710699588477361</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -3454,13 +2965,13 @@
         <v>0.98</v>
       </c>
       <c r="B99">
-        <v>638.36400000000003</v>
+        <v>451.99099999999999</v>
       </c>
       <c r="C99">
         <v>8.1666666666666676E-3</v>
       </c>
       <c r="D99">
-        <v>13.13506172839506</v>
+        <v>9.3002263374485583</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -3468,69 +2979,69 @@
         <v>0.99</v>
       </c>
       <c r="B100">
-        <v>424.25700000000001</v>
+        <v>454.06400000000002</v>
       </c>
       <c r="C100">
         <v>8.2500000000000004E-3</v>
       </c>
       <c r="D100">
-        <v>8.7295679012345673</v>
+        <v>9.342880658436215</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101">
-        <v>0.99450000000000005</v>
+        <v>0.995</v>
       </c>
       <c r="B101">
-        <v>417.22</v>
+        <v>455.73</v>
       </c>
       <c r="C101">
-        <v>8.2875000000000015E-3</v>
+        <v>8.2916666666666677E-3</v>
       </c>
       <c r="D101">
-        <v>8.5847736625514415</v>
+        <v>9.3771604938271604</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102">
-        <v>0.99724999999999997</v>
+        <v>0.99750000000000005</v>
       </c>
       <c r="B102">
-        <v>395.08100000000002</v>
+        <v>456.18400000000003</v>
       </c>
       <c r="C102">
-        <v>8.3104166666666673E-3</v>
+        <v>8.3125000000000022E-3</v>
       </c>
       <c r="D102">
-        <v>8.1292386831275714</v>
+        <v>9.3865020576131695</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103">
-        <v>0.99824999999999997</v>
+        <v>0.99850000000000005</v>
       </c>
       <c r="B103">
-        <v>393.88400000000001</v>
+        <v>455.77</v>
       </c>
       <c r="C103">
-        <v>8.3187499999999998E-3</v>
+        <v>8.3208333333333346E-3</v>
       </c>
       <c r="D103">
-        <v>8.104609053497942</v>
+        <v>9.3779835390946502</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104">
-        <v>0.99912999999999996</v>
+        <v>0.99924999999999997</v>
       </c>
       <c r="B104">
-        <v>388.30599999999998</v>
+        <v>452.89299999999997</v>
       </c>
       <c r="C104">
-        <v>8.3260833333333329E-3</v>
+        <v>8.3270833333333322E-3</v>
       </c>
       <c r="D104">
-        <v>7.9898353909465012</v>
+        <v>9.3187860082304521</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -3538,13 +3049,13 @@
         <v>1</v>
       </c>
       <c r="B105">
-        <v>384.31</v>
+        <v>450.22199999999998</v>
       </c>
       <c r="C105">
         <v>8.3333333333333332E-3</v>
       </c>
       <c r="D105">
-        <v>7.9076131687242794</v>
+        <v>9.2638271604938272</v>
       </c>
     </row>
   </sheetData>
